--- a/artfynd/A 25898-2022.xlsx
+++ b/artfynd/A 25898-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>292730</v>
+        <v>93500</v>
       </c>
       <c r="B2" t="n">
-        <v>79433</v>
+        <v>94121</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1049</v>
+        <v>53</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Täljeån, Mpd</t>
+          <t>Bäcken vid Mellantjärnsbodarna, Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>540844.6604352774</v>
+        <v>540775.1640602688</v>
       </c>
       <c r="R2" t="n">
-        <v>6941718.921423005</v>
+        <v>6941931.758068252</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2007-11-09</t>
+          <t>2009-09-02</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2007-11-09</t>
+          <t>2009-09-02</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -768,6 +768,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Jonas Salmonsson</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -777,16 +782,15 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Gransumpskog</t>
-        </is>
-      </c>
+      <c r="AN2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>2 substratenheter # Timmer</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
@@ -795,7 +799,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Via Andreas Karlberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
@@ -919,10 +923,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1901472</v>
+        <v>1866240</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>73678</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -931,25 +935,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>6439</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -959,10 +963,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>540812.4636330464</v>
+        <v>540827.0929000516</v>
       </c>
       <c r="R4" t="n">
-        <v>6941674.310578943</v>
+        <v>6941759.694429157</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1015,6 +1019,11 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1031,10 +1040,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>93500</v>
+        <v>168997</v>
       </c>
       <c r="B5" t="n">
-        <v>94121</v>
+        <v>73685</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1043,41 +1052,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>492</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Bäcken vid Mellantjärnsbodarna, Mpd</t>
+          <t>Täljeån, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>540775.1640602688</v>
+        <v>540827.0929000516</v>
       </c>
       <c r="R5" t="n">
-        <v>6941931.758068252</v>
+        <v>6941759.694429157</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1101,7 +1110,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2009-09-02</t>
+          <t>2007-11-09</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1111,7 +1120,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2009-09-02</t>
+          <t>2007-11-09</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1119,11 +1128,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Jonas Salmonsson</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1133,15 +1137,11 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AN5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>2 substratenheter # Timmer</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
@@ -1150,17 +1150,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Via Andreas Karlberg</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1866241</v>
+        <v>292730</v>
       </c>
       <c r="B6" t="n">
-        <v>73678</v>
+        <v>79433</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,25 +1169,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6439</v>
+        <v>1049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>540835.5837245358</v>
+        <v>540844.6604352774</v>
       </c>
       <c r="R6" t="n">
-        <v>6941669.529265426</v>
+        <v>6941718.921423005</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1672419</v>
+        <v>1901472</v>
       </c>
       <c r="B7" t="n">
-        <v>89356</v>
+        <v>78569</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1291,25 +1291,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>540838.9380165208</v>
+        <v>540812.4636330464</v>
       </c>
       <c r="R7" t="n">
-        <v>6941696.743931145</v>
+        <v>6941674.310578943</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1375,21 +1375,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>Gransumpskog</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1406,7 +1391,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1866240</v>
+        <v>1866241</v>
       </c>
       <c r="B8" t="n">
         <v>73678</v>
@@ -1446,10 +1431,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>540827.0929000516</v>
+        <v>540835.5837245358</v>
       </c>
       <c r="R8" t="n">
-        <v>6941759.694429157</v>
+        <v>6941669.529265426</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1506,6 +1491,11 @@
       <c r="AH8" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Gransumpskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1523,10 +1513,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>168997</v>
+        <v>1672419</v>
       </c>
       <c r="B9" t="n">
-        <v>73685</v>
+        <v>89356</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1535,25 +1525,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>492</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1563,10 +1553,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>540827.0929000516</v>
+        <v>540838.9380165208</v>
       </c>
       <c r="R9" t="n">
-        <v>6941759.694429157</v>
+        <v>6941696.743931145</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1623,6 +1613,16 @@
       <c r="AH9" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Gransumpskog</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>

--- a/artfynd/A 25898-2022.xlsx
+++ b/artfynd/A 25898-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>93500</v>
+        <v>292730</v>
       </c>
       <c r="B2" t="n">
-        <v>94121</v>
+        <v>79433</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>1049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Bäcken vid Mellantjärnsbodarna, Mpd</t>
+          <t>Täljeån, Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>540775.1640602688</v>
+        <v>540844.6604352774</v>
       </c>
       <c r="R2" t="n">
-        <v>6941931.758068252</v>
+        <v>6941718.921423005</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2009-09-02</t>
+          <t>2007-11-09</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2009-09-02</t>
+          <t>2007-11-09</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -768,11 +768,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Jonas Salmonsson</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -782,15 +777,16 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AN2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>2 substratenheter # Timmer</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Gransumpskog</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
@@ -799,7 +795,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Via Andreas Karlberg</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
@@ -923,10 +919,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1866240</v>
+        <v>1901472</v>
       </c>
       <c r="B4" t="n">
-        <v>73678</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -935,25 +931,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6439</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -963,10 +959,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>540827.0929000516</v>
+        <v>540812.4636330464</v>
       </c>
       <c r="R4" t="n">
-        <v>6941759.694429157</v>
+        <v>6941674.310578943</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1019,11 +1015,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1040,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>168997</v>
+        <v>93500</v>
       </c>
       <c r="B5" t="n">
-        <v>73685</v>
+        <v>94121</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1052,41 +1043,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>492</v>
+        <v>53</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Täljeån, Mpd</t>
+          <t>Bäcken vid Mellantjärnsbodarna, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>540827.0929000516</v>
+        <v>540775.1640602688</v>
       </c>
       <c r="R5" t="n">
-        <v>6941759.694429157</v>
+        <v>6941931.758068252</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1110,7 +1101,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2007-11-09</t>
+          <t>2009-09-02</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1120,7 +1111,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2007-11-09</t>
+          <t>2009-09-02</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1128,6 +1119,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Jonas Salmonsson</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1137,11 +1133,15 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
+      <c r="AN5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>2 substratenheter # Timmer</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
@@ -1150,17 +1150,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Via Andreas Karlberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>292730</v>
+        <v>1866241</v>
       </c>
       <c r="B6" t="n">
-        <v>79433</v>
+        <v>73678</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,25 +1169,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1049</v>
+        <v>6439</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>540844.6604352774</v>
+        <v>540835.5837245358</v>
       </c>
       <c r="R6" t="n">
-        <v>6941718.921423005</v>
+        <v>6941669.529265426</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1901472</v>
+        <v>1672419</v>
       </c>
       <c r="B7" t="n">
-        <v>78569</v>
+        <v>89356</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1291,25 +1291,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>540812.4636330464</v>
+        <v>540838.9380165208</v>
       </c>
       <c r="R7" t="n">
-        <v>6941674.310578943</v>
+        <v>6941696.743931145</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1375,6 +1375,21 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Gransumpskog</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1391,7 +1406,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1866241</v>
+        <v>1866240</v>
       </c>
       <c r="B8" t="n">
         <v>73678</v>
@@ -1431,10 +1446,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>540835.5837245358</v>
+        <v>540827.0929000516</v>
       </c>
       <c r="R8" t="n">
-        <v>6941669.529265426</v>
+        <v>6941759.694429157</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1491,11 +1506,6 @@
       <c r="AH8" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Gransumpskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1513,10 +1523,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1672419</v>
+        <v>168997</v>
       </c>
       <c r="B9" t="n">
-        <v>89356</v>
+        <v>73685</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1525,25 +1535,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>492</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1553,10 +1563,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>540838.9380165208</v>
+        <v>540827.0929000516</v>
       </c>
       <c r="R9" t="n">
-        <v>6941696.743931145</v>
+        <v>6941759.694429157</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1613,16 +1623,6 @@
       <c r="AH9" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>Gransumpskog</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
